--- a/data/trans_bre/P38_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-11,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,27</t>
+          <t>27,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>-33,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,23%</t>
+          <t>73,15%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 8,94</t>
+          <t>-32,48; 12,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 30,9</t>
+          <t>-19,71; 27,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 38,7</t>
+          <t>2,5; 56,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 34,93</t>
+          <t>-66,09; 54,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 76,97</t>
+          <t>-43,3; 150,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 126,26</t>
+          <t>2,26; 364,89</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 10,06</t>
+          <t>-8,16; 8,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 16,02</t>
+          <t>-6,73; 9,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 15,52</t>
+          <t>-7,2; 14,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 86,51</t>
+          <t>-40,82; 87,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 60,87</t>
+          <t>-34,42; 79,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 103,08</t>
+          <t>-22,99; 70,31</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>8,54%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 10,13</t>
+          <t>-7,84; 9,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 19,52</t>
+          <t>-7,68; 8,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 18,53</t>
+          <t>-8,61; 13,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 97,42</t>
+          <t>-40,52; 90,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 63,53</t>
+          <t>-36,02; 76,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 85,49</t>
+          <t>-28,12; 69,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 6,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 15,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 19,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 44,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 47,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 84,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,71</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,26%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,69; 5,74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 6,43</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 16,36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-28,39; 41,15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-23,63; 44,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 68,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P38_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-11,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>27,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-33,02%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>73,15%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-10.8477068927231</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.885254045981073</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>29.50095679194348</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.3255403491286526</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.09065701464923827</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.8086107377550498</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-32,48; 12,21</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-19,71; 27,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 56,81</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-66,09; 54,19</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-43,3; 150,74</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 364,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-31.38319484599007</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.10106650074993</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.650962080625721</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.6736734031171997</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4186655173508914</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.07266703447846475</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.517291720580515</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.84375215255991</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>59.94740292022548</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4653153458466193</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.543363101775292</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.974034048378071</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,61%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,38%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 8,82</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 9,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 14,8</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-40,82; 87,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-34,42; 79,13</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-22,99; 70,31</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.4546827372358314</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.5086022623486813</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.953582602644922</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.02911482247806436</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.03134370956925684</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1160147216869779</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>15,1%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.67137463354723</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.496643015254985</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.587271962251768</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4897485488264348</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3671676114385993</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.23872101804583</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,84; 9,29</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,68; 8,73</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,61; 13,64</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-40,52; 90,32</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-36,02; 76,78</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-28,12; 69,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.963730817680906</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.326494867816898</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.91185160675934</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.6882970029146459</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.7368979681887926</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.7038277384168495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +775,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.335941233357761</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5894514689083169</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.177179156855795</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1794736899999094</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.03806039038019198</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.04506541166831781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.169367169266505</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.998886487096889</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.703038509907074</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.3922738237214243</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3843675462328351</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3077359282982312</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.482416169472822</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.310458311251869</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.55198269229122</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.9651018240978186</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.7953762331424181</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.6117239637796126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,71</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,26%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>27,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 5,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 6,43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 16,36</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-28,39; 41,15</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-23,63; 44,44</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 68,8</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.8612118935614366</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.9955821538504384</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.944405877177174</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.05038409626087467</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.05519243285968034</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2888780863811089</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.594820417723763</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.992695786583858</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.007728451785825056</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3140563104178196</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2401655808458493</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.008471861405803612</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.774296919241429</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.692701080045635</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>16.5842883096801</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3456849654303167</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4591483156304905</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.697577431578801</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
